--- a/Graficos/tamños sdl_rects sonic.xlsx
+++ b/Graficos/tamños sdl_rects sonic.xlsx
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81:D87"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,7 +650,7 @@
         <v>72</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>93</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -678,13 +678,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D4">
         <v>72</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -695,13 +695,13 @@
         <v>72</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D5">
         <v>93</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -713,13 +713,13 @@
       </c>
       <c r="C6">
         <f>E2+E4</f>
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="D6">
         <v>96</v>
       </c>
       <c r="E6">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,13 +732,13 @@
       </c>
       <c r="C7">
         <f>C6</f>
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="D7">
         <v>107</v>
       </c>
       <c r="E7">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -750,15 +750,14 @@
       </c>
       <c r="C8">
         <f>C6+E6</f>
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="D8">
         <f>D6</f>
         <v>96</v>
       </c>
       <c r="E8">
-        <f>E6</f>
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -771,15 +770,14 @@
       </c>
       <c r="C9">
         <f>C8</f>
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="D9">
         <f>D7</f>
         <v>107</v>
       </c>
       <c r="E9">
-        <f>E7</f>
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,13 +789,13 @@
       </c>
       <c r="C10">
         <f>$C$9+$E$9</f>
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="D10">
         <v>90</v>
       </c>
       <c r="E10">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -810,13 +808,13 @@
       </c>
       <c r="C11">
         <f t="shared" ref="C11:C15" si="0">$C$9+$E$9</f>
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="D11">
         <v>85</v>
       </c>
       <c r="E11">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -829,13 +827,13 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="D12">
         <v>86</v>
       </c>
       <c r="E12">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -848,13 +846,13 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="D13">
         <v>86</v>
       </c>
       <c r="E13">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -867,13 +865,13 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="D14">
         <v>85</v>
       </c>
       <c r="E14">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -886,13 +884,13 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="D15">
         <v>87</v>
       </c>
       <c r="E15">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -905,13 +903,13 @@
       </c>
       <c r="C16">
         <f>$C$15+$E$15</f>
-        <v>518</v>
+        <v>605</v>
       </c>
       <c r="D16">
         <v>90</v>
       </c>
       <c r="E16">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -923,14 +921,14 @@
         <v>90</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C22" si="2">$C$15+$E$15</f>
-        <v>518</v>
+        <f t="shared" ref="C17:C21" si="2">$C$15+$E$15</f>
+        <v>605</v>
       </c>
       <c r="D17">
         <v>85</v>
       </c>
       <c r="E17">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -943,13 +941,13 @@
       </c>
       <c r="C18">
         <f t="shared" si="2"/>
-        <v>518</v>
+        <v>605</v>
       </c>
       <c r="D18">
         <v>86</v>
       </c>
       <c r="E18">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -962,13 +960,13 @@
       </c>
       <c r="C19">
         <f t="shared" si="2"/>
-        <v>518</v>
+        <v>605</v>
       </c>
       <c r="D19">
         <v>86</v>
       </c>
       <c r="E19">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -981,13 +979,13 @@
       </c>
       <c r="C20">
         <f t="shared" si="2"/>
-        <v>518</v>
+        <v>605</v>
       </c>
       <c r="D20">
         <v>85</v>
       </c>
       <c r="E20">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1000,13 +998,13 @@
       </c>
       <c r="C21">
         <f t="shared" si="2"/>
-        <v>518</v>
+        <v>605</v>
       </c>
       <c r="D21">
         <v>87</v>
       </c>
       <c r="E21">
-        <v>80</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1018,10 +1016,10 @@
       </c>
       <c r="C22">
         <f>$C$21+$E$21</f>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D22">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E22">
         <v>121</v>
@@ -1033,11 +1031,11 @@
       </c>
       <c r="B23">
         <f>B22+D22</f>
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23">
         <f t="shared" ref="C23:C35" si="4">$C$21+$E$21</f>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D23">
         <v>112</v>
@@ -1052,11 +1050,11 @@
       </c>
       <c r="B24">
         <f t="shared" ref="B24:B49" si="5">B23+D23</f>
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24">
         <f t="shared" si="4"/>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D24">
         <v>115</v>
@@ -1071,11 +1069,11 @@
       </c>
       <c r="B25">
         <f t="shared" si="5"/>
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C25">
         <f t="shared" si="4"/>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D25">
         <v>100</v>
@@ -1090,11 +1088,11 @@
       </c>
       <c r="B26">
         <f t="shared" si="5"/>
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C26">
         <f t="shared" si="4"/>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D26">
         <v>78</v>
@@ -1109,11 +1107,11 @@
       </c>
       <c r="B27">
         <f t="shared" si="5"/>
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C27">
         <f t="shared" si="4"/>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D27">
         <v>78</v>
@@ -1128,11 +1126,11 @@
       </c>
       <c r="B28">
         <f t="shared" si="5"/>
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C28">
         <f t="shared" si="4"/>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D28">
         <v>97</v>
@@ -1147,11 +1145,11 @@
       </c>
       <c r="B29">
         <f t="shared" si="5"/>
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C29">
         <f t="shared" si="4"/>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D29">
         <v>117</v>
@@ -1166,11 +1164,11 @@
       </c>
       <c r="B30">
         <f t="shared" si="5"/>
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C30">
         <f t="shared" si="4"/>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D30">
         <v>117</v>
@@ -1185,11 +1183,11 @@
       </c>
       <c r="B31">
         <f t="shared" si="5"/>
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C31">
         <f t="shared" si="4"/>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D31">
         <v>100</v>
@@ -1204,11 +1202,11 @@
       </c>
       <c r="B32">
         <f t="shared" si="5"/>
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C32">
         <f t="shared" si="4"/>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D32">
         <v>79</v>
@@ -1223,11 +1221,11 @@
       </c>
       <c r="B33">
         <f t="shared" si="5"/>
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C33">
         <f t="shared" si="4"/>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D33">
         <v>79</v>
@@ -1242,11 +1240,11 @@
       </c>
       <c r="B34">
         <f t="shared" si="5"/>
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C34">
         <f t="shared" si="4"/>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D34">
         <v>85</v>
@@ -1261,11 +1259,11 @@
       </c>
       <c r="B35">
         <f t="shared" si="5"/>
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="C35">
         <f t="shared" si="4"/>
-        <v>598</v>
+        <v>726</v>
       </c>
       <c r="D35">
         <v>90</v>
@@ -1283,7 +1281,7 @@
       </c>
       <c r="C36">
         <f>$C$35+$E$35</f>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D36">
         <v>112</v>
@@ -1302,7 +1300,7 @@
       </c>
       <c r="C37">
         <f t="shared" ref="C37:C49" si="6">$C$35+$E$35</f>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D37">
         <v>112</v>
@@ -1321,7 +1319,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="6"/>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D38">
         <v>115</v>
@@ -1340,7 +1338,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="6"/>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D39">
         <v>100</v>
@@ -1359,7 +1357,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="6"/>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D40">
         <v>78</v>
@@ -1378,7 +1376,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="6"/>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D41">
         <v>78</v>
@@ -1397,7 +1395,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="6"/>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D42">
         <v>97</v>
@@ -1416,7 +1414,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="6"/>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D43">
         <v>117</v>
@@ -1435,7 +1433,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="6"/>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D44">
         <v>117</v>
@@ -1454,7 +1452,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="6"/>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D45">
         <v>100</v>
@@ -1473,7 +1471,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="6"/>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D46">
         <v>79</v>
@@ -1492,7 +1490,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="6"/>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D47">
         <v>79</v>
@@ -1511,7 +1509,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="6"/>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D48">
         <v>85</v>
@@ -1530,7 +1528,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="6"/>
-        <v>719</v>
+        <v>847</v>
       </c>
       <c r="D49">
         <v>90</v>
@@ -1548,13 +1546,13 @@
       </c>
       <c r="C50">
         <f>$C$49+$E$49</f>
-        <v>840</v>
+        <v>968</v>
       </c>
       <c r="D50">
         <v>96</v>
       </c>
       <c r="E50">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1567,13 +1565,13 @@
       </c>
       <c r="C51">
         <f t="shared" ref="C51:C57" si="7">$C$49+$E$49</f>
-        <v>840</v>
+        <v>968</v>
       </c>
       <c r="D51">
         <v>96</v>
       </c>
       <c r="E51">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1586,13 +1584,13 @@
       </c>
       <c r="C52">
         <f t="shared" si="7"/>
-        <v>840</v>
+        <v>968</v>
       </c>
       <c r="D52">
         <v>96</v>
       </c>
       <c r="E52">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1605,13 +1603,13 @@
       </c>
       <c r="C53">
         <f t="shared" si="7"/>
-        <v>840</v>
+        <v>968</v>
       </c>
       <c r="D53">
         <v>96</v>
       </c>
       <c r="E53">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1624,13 +1622,13 @@
       </c>
       <c r="C54">
         <f t="shared" si="7"/>
-        <v>840</v>
+        <v>968</v>
       </c>
       <c r="D54">
         <v>96</v>
       </c>
       <c r="E54">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1643,13 +1641,13 @@
       </c>
       <c r="C55">
         <f t="shared" si="7"/>
-        <v>840</v>
+        <v>968</v>
       </c>
       <c r="D55">
         <v>88</v>
       </c>
       <c r="E55">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1662,13 +1660,13 @@
       </c>
       <c r="C56">
         <f t="shared" si="7"/>
-        <v>840</v>
+        <v>968</v>
       </c>
       <c r="D56">
         <v>98</v>
       </c>
       <c r="E56">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1681,13 +1679,13 @@
       </c>
       <c r="C57">
         <f t="shared" si="7"/>
-        <v>840</v>
+        <v>968</v>
       </c>
       <c r="D57">
         <v>95</v>
       </c>
       <c r="E57">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1699,13 +1697,13 @@
       </c>
       <c r="C58">
         <f>$C$57+$E$57</f>
-        <v>949</v>
+        <v>1089</v>
       </c>
       <c r="D58">
         <v>96</v>
       </c>
       <c r="E58">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1718,13 +1716,13 @@
       </c>
       <c r="C59">
         <f t="shared" ref="C59:C65" si="9">$C$57+$E$57</f>
-        <v>949</v>
+        <v>1089</v>
       </c>
       <c r="D59">
         <v>96</v>
       </c>
       <c r="E59">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1737,13 +1735,13 @@
       </c>
       <c r="C60">
         <f t="shared" si="9"/>
-        <v>949</v>
+        <v>1089</v>
       </c>
       <c r="D60">
         <v>96</v>
       </c>
       <c r="E60">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1756,13 +1754,13 @@
       </c>
       <c r="C61">
         <f t="shared" si="9"/>
-        <v>949</v>
+        <v>1089</v>
       </c>
       <c r="D61">
         <v>96</v>
       </c>
       <c r="E61">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -1775,13 +1773,13 @@
       </c>
       <c r="C62">
         <f t="shared" si="9"/>
-        <v>949</v>
+        <v>1089</v>
       </c>
       <c r="D62">
         <v>96</v>
       </c>
       <c r="E62">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1794,13 +1792,13 @@
       </c>
       <c r="C63">
         <f t="shared" si="9"/>
-        <v>949</v>
+        <v>1089</v>
       </c>
       <c r="D63">
         <v>88</v>
       </c>
       <c r="E63">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -1813,13 +1811,13 @@
       </c>
       <c r="C64">
         <f t="shared" si="9"/>
-        <v>949</v>
+        <v>1089</v>
       </c>
       <c r="D64">
         <v>98</v>
       </c>
       <c r="E64">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -1832,13 +1830,13 @@
       </c>
       <c r="C65">
         <f t="shared" si="9"/>
-        <v>949</v>
+        <v>1089</v>
       </c>
       <c r="D65">
         <v>95</v>
       </c>
       <c r="E65">
-        <v>109</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -1850,13 +1848,13 @@
       </c>
       <c r="C66">
         <f>$C$65+$E$65</f>
-        <v>1058</v>
+        <v>1210</v>
       </c>
       <c r="D66">
         <v>108</v>
       </c>
       <c r="E66">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -1869,13 +1867,13 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C69" si="10">$C$65+$E$65</f>
-        <v>1058</v>
+        <v>1210</v>
       </c>
       <c r="D67">
         <v>105</v>
       </c>
       <c r="E67">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -1888,13 +1886,13 @@
       </c>
       <c r="C68">
         <f t="shared" si="10"/>
-        <v>1058</v>
+        <v>1210</v>
       </c>
       <c r="D68">
         <v>95</v>
       </c>
       <c r="E68">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -1907,13 +1905,13 @@
       </c>
       <c r="C69">
         <f t="shared" si="10"/>
-        <v>1058</v>
+        <v>1210</v>
       </c>
       <c r="D69">
         <v>93</v>
       </c>
       <c r="E69">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -1925,13 +1923,13 @@
       </c>
       <c r="C70">
         <f>$C$69+$E$69</f>
-        <v>1172</v>
+        <v>1331</v>
       </c>
       <c r="D70">
         <v>108</v>
       </c>
       <c r="E70">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -1944,13 +1942,13 @@
       </c>
       <c r="C71">
         <f t="shared" ref="C71:C73" si="12">$C$69+$E$69</f>
-        <v>1172</v>
+        <v>1331</v>
       </c>
       <c r="D71">
         <v>105</v>
       </c>
       <c r="E71">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -1963,13 +1961,13 @@
       </c>
       <c r="C72">
         <f t="shared" si="12"/>
-        <v>1172</v>
+        <v>1331</v>
       </c>
       <c r="D72">
         <v>95</v>
       </c>
       <c r="E72">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -1982,13 +1980,13 @@
       </c>
       <c r="C73">
         <f t="shared" si="12"/>
-        <v>1172</v>
+        <v>1331</v>
       </c>
       <c r="D73">
         <v>93</v>
       </c>
       <c r="E73">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2001,13 +1999,13 @@
       </c>
       <c r="C74">
         <f>$C$73+$E$73</f>
-        <v>1286</v>
+        <v>1452</v>
       </c>
       <c r="D74">
         <v>92</v>
       </c>
       <c r="E74">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2019,14 +2017,14 @@
         <v>92</v>
       </c>
       <c r="C75">
-        <f t="shared" ref="C75:C81" si="13">$C$73+$E$73</f>
-        <v>1286</v>
+        <f t="shared" ref="C75:C80" si="13">$C$73+$E$73</f>
+        <v>1452</v>
       </c>
       <c r="D75">
         <v>97</v>
       </c>
       <c r="E75">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2034,18 +2032,18 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <f t="shared" ref="B76:B89" si="14">B75+D75</f>
+        <f t="shared" ref="B76:B80" si="14">B75+D75</f>
         <v>189</v>
       </c>
       <c r="C76">
         <f t="shared" si="13"/>
-        <v>1286</v>
+        <v>1452</v>
       </c>
       <c r="D76">
         <v>97</v>
       </c>
       <c r="E76">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2058,13 +2056,13 @@
       </c>
       <c r="C77">
         <f t="shared" si="13"/>
-        <v>1286</v>
+        <v>1452</v>
       </c>
       <c r="D77">
         <v>91</v>
       </c>
       <c r="E77">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2077,13 +2075,13 @@
       </c>
       <c r="C78">
         <f t="shared" si="13"/>
-        <v>1286</v>
+        <v>1452</v>
       </c>
       <c r="D78">
         <v>95</v>
       </c>
       <c r="E78">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2096,13 +2094,13 @@
       </c>
       <c r="C79">
         <f t="shared" si="13"/>
-        <v>1286</v>
+        <v>1452</v>
       </c>
       <c r="D79">
         <v>95</v>
       </c>
       <c r="E79">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2115,13 +2113,13 @@
       </c>
       <c r="C80">
         <f t="shared" si="13"/>
-        <v>1286</v>
+        <v>1452</v>
       </c>
       <c r="D80">
         <v>95</v>
       </c>
       <c r="E80">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -2134,13 +2132,13 @@
       </c>
       <c r="C81">
         <f>$C$80+$E$80</f>
-        <v>1403</v>
+        <v>1573</v>
       </c>
       <c r="D81">
         <v>92</v>
       </c>
       <c r="E81">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -2148,18 +2146,18 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <f>B81+D81</f>
+        <f t="shared" ref="B82:B87" si="15">B81+D81</f>
         <v>92</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:C88" si="15">$C$80+$E$80</f>
-        <v>1403</v>
+        <f t="shared" ref="C82:C87" si="16">$C$80+$E$80</f>
+        <v>1573</v>
       </c>
       <c r="D82">
         <v>97</v>
       </c>
       <c r="E82">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -2167,18 +2165,18 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <f>B82+D82</f>
+        <f t="shared" si="15"/>
         <v>189</v>
       </c>
       <c r="C83">
-        <f t="shared" si="15"/>
-        <v>1403</v>
+        <f t="shared" si="16"/>
+        <v>1573</v>
       </c>
       <c r="D83">
         <v>97</v>
       </c>
       <c r="E83">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -2186,18 +2184,18 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <f>B83+D83</f>
+        <f t="shared" si="15"/>
         <v>286</v>
       </c>
       <c r="C84">
-        <f t="shared" si="15"/>
-        <v>1403</v>
+        <f t="shared" si="16"/>
+        <v>1573</v>
       </c>
       <c r="D84">
         <v>91</v>
       </c>
       <c r="E84">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -2205,18 +2203,18 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <f>B84+D84</f>
+        <f t="shared" si="15"/>
         <v>377</v>
       </c>
       <c r="C85">
-        <f t="shared" si="15"/>
-        <v>1403</v>
+        <f t="shared" si="16"/>
+        <v>1573</v>
       </c>
       <c r="D85">
         <v>95</v>
       </c>
       <c r="E85">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -2224,18 +2222,18 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <f>B85+D85</f>
+        <f t="shared" si="15"/>
         <v>472</v>
       </c>
       <c r="C86">
-        <f t="shared" si="15"/>
-        <v>1403</v>
+        <f t="shared" si="16"/>
+        <v>1573</v>
       </c>
       <c r="D86">
         <v>95</v>
       </c>
       <c r="E86">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -2243,18 +2241,18 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <f>B86+D86</f>
+        <f t="shared" si="15"/>
         <v>567</v>
       </c>
       <c r="C87">
-        <f t="shared" si="15"/>
-        <v>1403</v>
+        <f t="shared" si="16"/>
+        <v>1573</v>
       </c>
       <c r="D87">
         <v>95</v>
       </c>
       <c r="E87">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
